--- a/Assets/StreamingAssets/story/1-1-1.xlsx
+++ b/Assets/StreamingAssets/story/1-1-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_proj\case_galgame\Assets\StreamingAssets\story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\Unity_VNcase\Assets\StreamingAssets\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1E0E5-4E40-4E99-AAC9-28ABEC298946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F4384A-5140-4160-AC62-7F343279C952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1100" yWindow="3620" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>中文姓名</t>
   </si>
@@ -43,24 +43,6 @@
   </si>
   <si>
     <t>Bgm</t>
-  </si>
-  <si>
-    <t>Action1</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>Character1</t>
-  </si>
-  <si>
-    <t>Action2</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>Character2</t>
   </si>
   <si>
     <t>English Name</t>
@@ -90,13 +72,17 @@
   </si>
   <si>
     <t>您选择了继续选项</t>
+  </si>
+  <si>
+    <t>CharacterCommands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +93,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -422,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,56 +443,42 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>